--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efna2</t>
+  </si>
+  <si>
+    <t>Epha1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna2</t>
-  </si>
-  <si>
-    <t>Epha1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H2">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I2">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J2">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N2">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O2">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P2">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q2">
-        <v>14.3512041389325</v>
+        <v>9.3177679311665</v>
       </c>
       <c r="R2">
-        <v>57.40481655572999</v>
+        <v>37.271071724666</v>
       </c>
       <c r="S2">
-        <v>0.0543757310760334</v>
+        <v>0.04906290439425432</v>
       </c>
       <c r="T2">
-        <v>0.03263060383589263</v>
+        <v>0.03156261081276563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H3">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I3">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J3">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N3">
         <v>16.215298</v>
       </c>
       <c r="O3">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P3">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q3">
-        <v>16.95837484104866</v>
+        <v>9.360067269076332</v>
       </c>
       <c r="R3">
-        <v>101.750249046292</v>
+        <v>56.160403614458</v>
       </c>
       <c r="S3">
-        <v>0.06425412257511266</v>
+        <v>0.04928563245392929</v>
       </c>
       <c r="T3">
-        <v>0.0578378656364081</v>
+        <v>0.04755884068656624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H4">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I4">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J4">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N4">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O4">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P4">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q4">
-        <v>7.162237724728333</v>
+        <v>3.449229055215667</v>
       </c>
       <c r="R4">
-        <v>42.97342634837</v>
+        <v>20.695374331294</v>
       </c>
       <c r="S4">
-        <v>0.02713722894972479</v>
+        <v>0.01816198864578767</v>
       </c>
       <c r="T4">
-        <v>0.02442737273244719</v>
+        <v>0.01752565771299902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H5">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I5">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J5">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N5">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O5">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P5">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q5">
-        <v>15.459692019156</v>
+        <v>10.037482400361</v>
       </c>
       <c r="R5">
-        <v>61.83876807662399</v>
+        <v>40.149929601444</v>
       </c>
       <c r="S5">
-        <v>0.05857571585031165</v>
+        <v>0.05285257617553367</v>
       </c>
       <c r="T5">
-        <v>0.03515099366007027</v>
+        <v>0.03400054099683047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H6">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I6">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J6">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N6">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O6">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P6">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q6">
-        <v>8.693482328752664</v>
+        <v>14.1595716110095</v>
       </c>
       <c r="R6">
-        <v>52.16089397251599</v>
+        <v>84.957429666057</v>
       </c>
       <c r="S6">
-        <v>0.03293901004028683</v>
+        <v>0.07455752422110232</v>
       </c>
       <c r="T6">
-        <v>0.029649802387066</v>
+        <v>0.07194529601970269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H7">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I7">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J7">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N7">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O7">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P7">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q7">
-        <v>10.164214413878</v>
+        <v>2.6876718424465</v>
       </c>
       <c r="R7">
-        <v>60.985286483268</v>
+        <v>16.126031054679</v>
       </c>
       <c r="S7">
-        <v>0.03851151333488617</v>
+        <v>0.01415199301197596</v>
       </c>
       <c r="T7">
-        <v>0.03466584935642131</v>
+        <v>0.01365615794183248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>6.92846</v>
       </c>
       <c r="I8">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J8">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N8">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O8">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P8">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q8">
-        <v>10.56387492545</v>
+        <v>12.42659255119333</v>
       </c>
       <c r="R8">
-        <v>63.3832495527</v>
+        <v>74.55955530716</v>
       </c>
       <c r="S8">
-        <v>0.04002579968246827</v>
+        <v>0.06543248627670259</v>
       </c>
       <c r="T8">
-        <v>0.0360289228339887</v>
+        <v>0.06313996667220478</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>6.92846</v>
       </c>
       <c r="I9">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J9">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N9">
         <v>16.215298</v>
       </c>
       <c r="O9">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P9">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q9">
         <v>12.48300484234222</v>
@@ -1013,10 +1013,10 @@
         <v>112.34704358108</v>
       </c>
       <c r="S9">
-        <v>0.04729725169796891</v>
+        <v>0.06572952639057375</v>
       </c>
       <c r="T9">
-        <v>0.06386139859307782</v>
+        <v>0.09513989934900975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>6.92846</v>
       </c>
       <c r="I10">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J10">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N10">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O10">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P10">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q10">
-        <v>5.272100011811112</v>
+        <v>4.600046320271112</v>
       </c>
       <c r="R10">
-        <v>47.44890010630001</v>
+        <v>41.40041688244</v>
       </c>
       <c r="S10">
-        <v>0.019975626412455</v>
+        <v>0.02422164132953979</v>
       </c>
       <c r="T10">
-        <v>0.0269713650302219</v>
+        <v>0.03505950285518428</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>6.92846</v>
       </c>
       <c r="I11">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J11">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N11">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O11">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P11">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q11">
-        <v>11.37982926696</v>
+        <v>13.38643599524</v>
       </c>
       <c r="R11">
-        <v>68.27897560176</v>
+        <v>80.31861597144</v>
       </c>
       <c r="S11">
-        <v>0.04311739488345257</v>
+        <v>0.07048656226105884</v>
       </c>
       <c r="T11">
-        <v>0.03881179902419213</v>
+        <v>0.06801696596368158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>6.92846</v>
       </c>
       <c r="I12">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J12">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N12">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O12">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P12">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q12">
-        <v>6.399244209648889</v>
+        <v>18.88383874864667</v>
       </c>
       <c r="R12">
-        <v>57.59319788684</v>
+        <v>169.95454873782</v>
       </c>
       <c r="S12">
-        <v>0.02424629869836239</v>
+        <v>0.09943325289551162</v>
       </c>
       <c r="T12">
-        <v>0.03273768538330182</v>
+        <v>0.1439242025906378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>6.92846</v>
       </c>
       <c r="I13">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J13">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N13">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O13">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P13">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q13">
-        <v>7.481845338146668</v>
+        <v>3.584399519726666</v>
       </c>
       <c r="R13">
-        <v>67.33660804332001</v>
+        <v>32.25959567754</v>
       </c>
       <c r="S13">
-        <v>0.0283482003406161</v>
+        <v>0.01887373158961519</v>
       </c>
       <c r="T13">
-        <v>0.03827612929624517</v>
+        <v>0.02731869560578072</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H14">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I14">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J14">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N14">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O14">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P14">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q14">
-        <v>2.68363767075</v>
+        <v>12.821637975738</v>
       </c>
       <c r="R14">
-        <v>16.1018260245</v>
+        <v>51.28655190295201</v>
       </c>
       <c r="S14">
-        <v>0.01016811961404301</v>
+        <v>0.0675126063268052</v>
       </c>
       <c r="T14">
-        <v>0.009152756468263296</v>
+        <v>0.04343147118493773</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H15">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I15">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J15">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N15">
         <v>16.215298</v>
       </c>
       <c r="O15">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P15">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q15">
-        <v>3.171171778866667</v>
+        <v>12.879843631996</v>
       </c>
       <c r="R15">
-        <v>28.5405460098</v>
+        <v>77.27906179197599</v>
       </c>
       <c r="S15">
-        <v>0.0120153530097013</v>
+        <v>0.06781908944264231</v>
       </c>
       <c r="T15">
-        <v>0.01622329459413438</v>
+        <v>0.06544295182425863</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H16">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I16">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J16">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N16">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O16">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P16">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q16">
-        <v>1.339319737833334</v>
+        <v>4.746283291028</v>
       </c>
       <c r="R16">
-        <v>12.0538776405</v>
+        <v>28.477699746168</v>
       </c>
       <c r="S16">
-        <v>0.00507459089733679</v>
+        <v>0.02499165519639646</v>
       </c>
       <c r="T16">
-        <v>0.006851782299341207</v>
+        <v>0.02411603724655573</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H17">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I17">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J17">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N17">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O17">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P17">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q17">
-        <v>2.8909220076</v>
+        <v>13.811995155492</v>
       </c>
       <c r="R17">
-        <v>17.3455320456</v>
+        <v>55.247980621968</v>
       </c>
       <c r="S17">
-        <v>0.01095350579123858</v>
+        <v>0.0727273530328171</v>
       </c>
       <c r="T17">
-        <v>0.009859715934346244</v>
+        <v>0.04678616497653235</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H18">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I18">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J18">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N18">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O18">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P18">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q18">
-        <v>1.625658477266667</v>
+        <v>19.484162132934</v>
       </c>
       <c r="R18">
-        <v>14.6309262954</v>
+        <v>116.904972797604</v>
       </c>
       <c r="S18">
-        <v>0.006159508799789223</v>
+        <v>0.1025942683904787</v>
       </c>
       <c r="T18">
-        <v>0.00831665334621973</v>
+        <v>0.09899973324474598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H19">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I19">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J19">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N19">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O19">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P19">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q19">
-        <v>1.9006815338</v>
+        <v>3.698348747898</v>
       </c>
       <c r="R19">
-        <v>17.1061338042</v>
+        <v>22.190092487388</v>
       </c>
       <c r="S19">
-        <v>0.00720155235355597</v>
+        <v>0.01947373366402501</v>
       </c>
       <c r="T19">
-        <v>0.009723634858875008</v>
+        <v>0.01879144389119329</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H20">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I20">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J20">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N20">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O20">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P20">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q20">
-        <v>7.86044426428875</v>
+        <v>0.3138690045513333</v>
       </c>
       <c r="R20">
-        <v>31.441777057155</v>
+        <v>1.883214027308</v>
       </c>
       <c r="S20">
-        <v>0.0297826857812997</v>
+        <v>0.001652683891290474</v>
       </c>
       <c r="T20">
-        <v>0.01787244054777968</v>
+        <v>0.001594779776126656</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H21">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I21">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J21">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N21">
         <v>16.215298</v>
       </c>
       <c r="O21">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P21">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q21">
-        <v>9.288444297810335</v>
+        <v>0.3152938577115555</v>
       </c>
       <c r="R21">
-        <v>55.73066578686201</v>
+        <v>2.837644719403999</v>
       </c>
       <c r="S21">
-        <v>0.03519328025460166</v>
+        <v>0.001660186485784377</v>
       </c>
       <c r="T21">
-        <v>0.03167896678210201</v>
+        <v>0.002403029259933377</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H22">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I22">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J22">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N22">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O22">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P22">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q22">
-        <v>3.922902210699168</v>
+        <v>0.1161872776857778</v>
       </c>
       <c r="R22">
-        <v>23.53741326419501</v>
+        <v>1.045685499172</v>
       </c>
       <c r="S22">
-        <v>0.01486360820886642</v>
+        <v>0.000611786571530586</v>
       </c>
       <c r="T22">
-        <v>0.01337936524542326</v>
+        <v>0.0008855276469304198</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H23">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I23">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J23">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N23">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O23">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P23">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q23">
-        <v>8.467585457166001</v>
+        <v>0.338112585812</v>
       </c>
       <c r="R23">
-        <v>33.870341828664</v>
+        <v>2.028675514872</v>
       </c>
       <c r="S23">
-        <v>0.0320831022417913</v>
+        <v>0.001780338981903738</v>
       </c>
       <c r="T23">
-        <v>0.01925290894230859</v>
+        <v>0.001717962290279853</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H24">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I24">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J24">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N24">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O24">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P24">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q24">
-        <v>4.761595796854333</v>
+        <v>0.4769651572406666</v>
       </c>
       <c r="R24">
-        <v>28.569574781126</v>
+        <v>4.292686415165999</v>
       </c>
       <c r="S24">
-        <v>0.01804136085278914</v>
+        <v>0.002511470137694198</v>
       </c>
       <c r="T24">
-        <v>0.01623979541050859</v>
+        <v>0.00363521584954758</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H25">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I25">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J25">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N25">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O25">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P25">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q25">
-        <v>5.567145454633001</v>
+        <v>0.09053422364466665</v>
       </c>
       <c r="R25">
-        <v>33.40287272779801</v>
+        <v>0.8148080128019998</v>
       </c>
       <c r="S25">
-        <v>0.02109353341863919</v>
+        <v>0.0004767098721388994</v>
       </c>
       <c r="T25">
-        <v>0.018987185611914</v>
+        <v>0.000690011502357005</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H26">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I26">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J26">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N26">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O26">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P26">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q26">
-        <v>9.621055271042499</v>
+        <v>1.225349630078333</v>
       </c>
       <c r="R26">
-        <v>57.72633162625499</v>
+        <v>7.352097780469999</v>
       </c>
       <c r="S26">
-        <v>0.03645352048659346</v>
+        <v>0.006452104430394606</v>
       </c>
       <c r="T26">
-        <v>0.03281336255759999</v>
+        <v>0.006226045835671555</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H27">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I27">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J27">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N27">
         <v>16.215298</v>
       </c>
       <c r="O27">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P27">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q27">
-        <v>11.36890396605578</v>
+        <v>1.230912279678889</v>
       </c>
       <c r="R27">
-        <v>102.320135694502</v>
+        <v>11.07821051711</v>
       </c>
       <c r="S27">
-        <v>0.04307599966545262</v>
+        <v>0.006481394679684666</v>
       </c>
       <c r="T27">
-        <v>0.05816180614462402</v>
+        <v>0.009381464789541502</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H28">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I28">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J28">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N28">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O28">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P28">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q28">
-        <v>4.801568171343889</v>
+        <v>0.4535969964144445</v>
       </c>
       <c r="R28">
-        <v>43.214113542095</v>
+        <v>4.08237296773</v>
       </c>
       <c r="S28">
-        <v>0.01819281344622122</v>
+        <v>0.002388424591920128</v>
       </c>
       <c r="T28">
-        <v>0.02456418648672839</v>
+        <v>0.003457114142702364</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H29">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I29">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J29">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N29">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O29">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P29">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q29">
-        <v>10.364186165124</v>
+        <v>1.31999696033</v>
       </c>
       <c r="R29">
-        <v>62.18511699074399</v>
+        <v>7.91998176198</v>
       </c>
       <c r="S29">
-        <v>0.039269192625299</v>
+        <v>0.00695047195248931</v>
       </c>
       <c r="T29">
-        <v>0.03534786867655377</v>
+        <v>0.006706952347499652</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H30">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I30">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J30">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N30">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O30">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P30">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q30">
-        <v>5.82811540920511</v>
+        <v>1.862079627201667</v>
       </c>
       <c r="R30">
-        <v>52.45303868284599</v>
+        <v>16.758716644815</v>
       </c>
       <c r="S30">
-        <v>0.02208233073009554</v>
+        <v>0.009804819716350971</v>
       </c>
       <c r="T30">
-        <v>0.02981586612313378</v>
+        <v>0.01419194100693527</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H31">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I31">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J31">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N31">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O31">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P31">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q31">
-        <v>6.814095020595333</v>
+        <v>0.3534470618116666</v>
       </c>
       <c r="R31">
-        <v>61.32685518535799</v>
+        <v>3.181023556305</v>
       </c>
       <c r="S31">
-        <v>0.02581814005148637</v>
+        <v>0.001861082990068089</v>
       </c>
       <c r="T31">
-        <v>0.03486000715831618</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H32">
-        <v>4.562099</v>
-      </c>
-      <c r="I32">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J32">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>4.5741225</v>
-      </c>
-      <c r="N32">
-        <v>9.148244999999999</v>
-      </c>
-      <c r="O32">
-        <v>0.1971611593636388</v>
-      </c>
-      <c r="P32">
-        <v>0.1522216139584879</v>
-      </c>
-      <c r="Q32">
-        <v>6.955866561042499</v>
-      </c>
-      <c r="R32">
-        <v>41.735199366255</v>
-      </c>
-      <c r="S32">
-        <v>0.02635530272320094</v>
-      </c>
-      <c r="T32">
-        <v>0.02372352771496364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H33">
-        <v>4.562099</v>
-      </c>
-      <c r="I33">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J33">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>5.405099333333333</v>
-      </c>
-      <c r="N33">
-        <v>16.215298</v>
-      </c>
-      <c r="O33">
-        <v>0.2329792547172996</v>
-      </c>
-      <c r="P33">
-        <v>0.2698133721143063</v>
-      </c>
-      <c r="Q33">
-        <v>8.219532754500221</v>
-      </c>
-      <c r="R33">
-        <v>73.97579479050201</v>
-      </c>
-      <c r="S33">
-        <v>0.03114324751446241</v>
-      </c>
-      <c r="T33">
-        <v>0.04205004036395992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H34">
-        <v>4.562099</v>
-      </c>
-      <c r="I34">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J34">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>2.282801666666667</v>
-      </c>
-      <c r="N34">
-        <v>6.848405000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.09839697629375842</v>
-      </c>
-      <c r="P34">
-        <v>0.1139535793085317</v>
-      </c>
-      <c r="Q34">
-        <v>3.471455733566111</v>
-      </c>
-      <c r="R34">
-        <v>31.243101602095</v>
-      </c>
-      <c r="S34">
-        <v>0.01315310837915418</v>
-      </c>
-      <c r="T34">
-        <v>0.01775950751436976</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H35">
-        <v>4.562099</v>
-      </c>
-      <c r="I35">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J35">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>4.927428</v>
-      </c>
-      <c r="N35">
-        <v>9.854856</v>
-      </c>
-      <c r="O35">
-        <v>0.2123898992999982</v>
-      </c>
-      <c r="P35">
-        <v>0.1639792206754944</v>
-      </c>
-      <c r="Q35">
-        <v>7.493138117123999</v>
-      </c>
-      <c r="R35">
-        <v>44.958828702744</v>
-      </c>
-      <c r="S35">
-        <v>0.02839098790790508</v>
-      </c>
-      <c r="T35">
-        <v>0.02555593443802344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H36">
-        <v>4.562099</v>
-      </c>
-      <c r="I36">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J36">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.770851333333333</v>
-      </c>
-      <c r="N36">
-        <v>8.312553999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.1194336752687066</v>
-      </c>
-      <c r="P36">
-        <v>0.1383161891703911</v>
-      </c>
-      <c r="Q36">
-        <v>4.213632698982888</v>
-      </c>
-      <c r="R36">
-        <v>37.922694290846</v>
-      </c>
-      <c r="S36">
-        <v>0.01596516614738345</v>
-      </c>
-      <c r="T36">
-        <v>0.02155638652016117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H37">
-        <v>4.562099</v>
-      </c>
-      <c r="I37">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J37">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>3.239614</v>
-      </c>
-      <c r="N37">
-        <v>9.718842</v>
-      </c>
-      <c r="O37">
-        <v>0.1396390350565984</v>
-      </c>
-      <c r="P37">
-        <v>0.1617160247727885</v>
-      </c>
-      <c r="Q37">
-        <v>4.926479929928666</v>
-      </c>
-      <c r="R37">
-        <v>44.338319369358</v>
-      </c>
-      <c r="S37">
-        <v>0.01866609555741454</v>
-      </c>
-      <c r="T37">
-        <v>0.02520321849101688</v>
+        <v>0.002693815977055704</v>
       </c>
     </row>
   </sheetData>
